--- a/biology/Médecine/Apothicairerie_de_l'hôtel-Dieu_de_Bourg-en-Bresse/Apothicairerie_de_l'hôtel-Dieu_de_Bourg-en-Bresse.xlsx
+++ b/biology/Médecine/Apothicairerie_de_l'hôtel-Dieu_de_Bourg-en-Bresse/Apothicairerie_de_l'hôtel-Dieu_de_Bourg-en-Bresse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apothicairerie_de_l%27h%C3%B4tel-Dieu_de_Bourg-en-Bresse</t>
+          <t>Apothicairerie_de_l'hôtel-Dieu_de_Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'apothicairerie de l'hôtel-Dieu de Bourg-en-Bresse est l'ancienne pharmacie de l'ancien hôtel-Dieu datant du XVIIIe siècle, reconvertie en musée et située à Bourg-en-Bresse dans l'Ain. Tenue par des religieuses, elle a définitivement fermé en 1963.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apothicairerie_de_l%27h%C3%B4tel-Dieu_de_Bourg-en-Bresse</t>
+          <t>Apothicairerie_de_l'hôtel-Dieu_de_Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Le musée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée compte trois salles de visite : l'apothicairerie, la réserve et la salle des préparations [1],[2]. La réserve présente une importante collection de pots de pharmacie en faïence[2]; on recense plus de 1 000 pots, boîtes et verrines, pour la plupart encore emplis de leur contenu curatif originel. Dans l'officine, on peut voir des boiseries sculptées en chêne du XVIIe siècle [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée compte trois salles de visite : l'apothicairerie, la réserve et la salle des préparations ,. La réserve présente une importante collection de pots de pharmacie en faïence; on recense plus de 1 000 pots, boîtes et verrines, pour la plupart encore emplis de leur contenu curatif originel. Dans l'officine, on peut voir des boiseries sculptées en chêne du XVIIe siècle .
 L'apothicairerie de Bourg-en-Bresse est ainsi l'une des plus grandes de France. Elle dispose de l'une des rares salles des préparations parfaitement conservée et ouverte à la visite.
-L'apothicairerie constitue une partie de l'hôtel-Dieu de Bourg-en-Bresse qui fait l'objet d'une inscription partielle au titre des Monuments historiques[3].
+L'apothicairerie constitue une partie de l'hôtel-Dieu de Bourg-en-Bresse qui fait l'objet d'une inscription partielle au titre des Monuments historiques.
 </t>
         </is>
       </c>
